--- a/Data/Testlist.xlsx
+++ b/Data/Testlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\user\dekkerm\Projects\AR6_Variance\variancedecomposition\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE535B2-62EB-425D-B117-7204773D4D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E9D04E-40F9-4B06-8689-728BD6086CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{533C8E6D-95F2-4DEC-B07C-E829EF0792A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Variable</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Emissions|CO2|Energy|Demand|Residential and Commercial</t>
-  </si>
-  <si>
-    <t>Primary Energy|Biomass</t>
   </si>
   <si>
     <t>Primary Energy|Coal</t>
@@ -491,7 +488,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -505,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -513,24 +510,20 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
